--- a/pyprograms/ipl.xlsx
+++ b/pyprograms/ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\training\python\2023\python-05-2023\pyprograms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E9B9EB-75B0-45F2-AA7A-3952D1051152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC98985-2BC8-4382-8429-5E58BE6621C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BBD201-9C29-4169-A22A-06423EACD7E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>team</t>
   </si>
   <si>
-    <t>season</t>
-  </si>
-  <si>
     <t>matches</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>csk</t>
+  </si>
+  <si>
+    <t>row index</t>
+  </si>
+  <si>
+    <t>column</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2810D550-7C80-4147-A2ED-021C79C52436}">
-  <dimension ref="C7:H10"/>
+  <dimension ref="A5:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +449,35 @@
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,67 +493,74 @@
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>640</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
-        <v>640</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F9" s="2">
+        <v>450</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>399</v>
+      </c>
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F9" s="2">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2">
-        <v>450</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F10" s="1">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1">
-        <v>399</v>
-      </c>
-      <c r="H10" s="1">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>SUM(F7:F10)</f>
+        <v>1489</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G8,G10)</f>
         <v>8</v>
       </c>
     </row>
